--- a/biology/Zoologie/Clitaetra/Clitaetra.xlsx
+++ b/biology/Zoologie/Clitaetra/Clitaetra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Clitaetra est un genre d'araignées aranéomorphes de la famille des Araneidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Clitaetra est un genre d'araignées aranéomorphes de la famille des Araneidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les espèces de ce genre se rencontrent en Afrique subsaharienne.
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les mâles mesurent de 2,8 à 4,9 mm et les femelles de 3,5 à 9,9 mm[2].
-Clitaetra est le genre de Nephilidae avec le dimorphisme sexuel le plus faible, les femelles sont de une fois et demi à deux fois et demi plus grandes que les mâles[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les mâles mesurent de 2,8 à 4,9 mm et les femelles de 3,5 à 9,9 mm.
+Clitaetra est le genre de Nephilidae avec le dimorphisme sexuel le plus faible, les femelles sont de une fois et demi à deux fois et demi plus grandes que les mâles.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Spider Catalog                                (version 25.0, 18/03/2024)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Spider Catalog                                (version 25.0, 18/03/2024) :
 Clitaetra clathrata Simon, 1907
 Clitaetra episinoides Simon, 1889
 Clitaetra irenae Kuntner, 2006
@@ -609,10 +627,12 @@
           <t>Systématique et taxinomie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit par Simon en 1889 dans les Epeiridae. Il est placé dans les Nephilidae par Kuntner en 2006[2], dans les Araneidae par Dimitrov et al. en 2017[4], dans les Nephilidae par Kuntner et al. en 2023[5] puis dans les Araneidae par Hormiga et al. en 2023[6].
-Le sous-genre Indoetra a été élevé au rang de genre par Kuntner et al. en 2019[7].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit par Simon en 1889 dans les Epeiridae. Il est placé dans les Nephilidae par Kuntner en 2006, dans les Araneidae par Dimitrov et al. en 2017, dans les Nephilidae par Kuntner et al. en 2023 puis dans les Araneidae par Hormiga et al. en 2023.
+Le sous-genre Indoetra a été élevé au rang de genre par Kuntner et al. en 2019.
 </t>
         </is>
       </c>
@@ -641,7 +661,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Simon, 1889 : « Études arachnologiques. 21e Mémoire. XXXI. Descriptions d'espèces et de genres nouveaux de Madagascar et de Mayotte. » Annales de la Société Entomologique de France, sér. 6, vol. 8, p. 223-236 (texte intégral).</t>
         </is>
